--- a/com.crm.framework.SDET37/src/test/resources/Sdet37TestData.xlsx
+++ b/com.crm.framework.SDET37/src/test/resources/Sdet37TestData.xlsx
@@ -2,15 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="6015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14304" windowHeight="8004" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Organisations" sheetId="1" r:id="rId1"/>
-    <sheet name="Contacts" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Contacts" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:N26"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -193,7 +195,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -517,20 +519,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="5" width="19.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -570,7 +572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>17</v>
       </c>
@@ -578,7 +580,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>18</v>
       </c>
@@ -586,7 +588,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>19</v>
       </c>
@@ -594,7 +596,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>20</v>
       </c>
@@ -602,7 +604,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>21</v>
       </c>
@@ -610,7 +612,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>22</v>
       </c>
@@ -618,7 +620,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>23</v>
       </c>
@@ -626,7 +628,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>24</v>
       </c>
@@ -634,7 +636,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>25</v>
       </c>
@@ -642,107 +644,107 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>46</v>
       </c>
@@ -755,21 +757,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
     <col min="3" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,7 +798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
@@ -792,7 +806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>

--- a/com.crm.framework.SDET37/src/test/resources/Sdet37TestData.xlsx
+++ b/com.crm.framework.SDET37/src/test/resources/Sdet37TestData.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14304" windowHeight="8004" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Organisations" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="NewUser" sheetId="3" r:id="rId2"/>
     <sheet name="Contacts" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:N26"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>TestID</t>
   </si>
@@ -190,19 +189,47 @@
   </si>
   <si>
     <t>Reseller</t>
+  </si>
+  <si>
+    <t>fullName</t>
+  </si>
+  <si>
+    <t>david</t>
+  </si>
+  <si>
+    <t>PhNo</t>
+  </si>
+  <si>
+    <t>EmailId</t>
+  </si>
+  <si>
+    <t>david@gmail.com</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>david12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -228,17 +255,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -297,7 +330,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -332,7 +365,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -509,30 +542,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="5" width="19.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -572,7 +605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="D3" t="s">
         <v>17</v>
       </c>
@@ -580,7 +613,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="D4" t="s">
         <v>18</v>
       </c>
@@ -588,7 +621,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="D5" t="s">
         <v>19</v>
       </c>
@@ -596,7 +629,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="D6" t="s">
         <v>20</v>
       </c>
@@ -604,7 +637,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="D7" t="s">
         <v>21</v>
       </c>
@@ -612,7 +645,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="D8" t="s">
         <v>22</v>
       </c>
@@ -620,7 +653,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="D9" t="s">
         <v>23</v>
       </c>
@@ -628,7 +661,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="D10" t="s">
         <v>24</v>
       </c>
@@ -636,7 +669,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="D11" t="s">
         <v>25</v>
       </c>
@@ -644,107 +677,107 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="D12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="D13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="D14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="D15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="D16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4">
       <c r="D17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4">
       <c r="D18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:4">
       <c r="D19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:4">
       <c r="D20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:4">
       <c r="D21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:4">
       <c r="D22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:4">
       <c r="D23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:4">
       <c r="D24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:4">
       <c r="D25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:4">
       <c r="D26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:4">
       <c r="D27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:4">
       <c r="D28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:4">
       <c r="D29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:4">
       <c r="D30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:4">
       <c r="D31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:4">
       <c r="D32" t="s">
         <v>46</v>
       </c>
@@ -756,34 +789,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2">
+        <v>987461230</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -798,7 +870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
@@ -806,7 +878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>

--- a/com.crm.framework.SDET37/src/test/resources/Sdet37TestData.xlsx
+++ b/com.crm.framework.SDET37/src/test/resources/Sdet37TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14304" windowHeight="8004" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17568" windowHeight="8004" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Organisations" sheetId="1" r:id="rId1"/>
@@ -759,7 +759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -771,7 +771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/com.crm.framework.SDET37/src/test/resources/Sdet37TestData.xlsx
+++ b/com.crm.framework.SDET37/src/test/resources/Sdet37TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>TestID</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>david12</t>
+  </si>
+  <si>
+    <t>confirmationText</t>
+  </si>
+  <si>
+    <t>Confirmation</t>
   </si>
 </sst>
 </file>
@@ -542,7 +548,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -790,10 +796,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -801,9 +807,10 @@
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -816,8 +823,11 @@
       <c r="D1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -829,6 +839,9 @@
       </c>
       <c r="D2" t="s">
         <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/com.crm.framework.SDET37/src/test/resources/Sdet37TestData.xlsx
+++ b/com.crm.framework.SDET37/src/test/resources/Sdet37TestData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="6015" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="6015" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Organisations" sheetId="1" r:id="rId1"/>
     <sheet name="Contacts" sheetId="2" r:id="rId2"/>
     <sheet name="NewUser" sheetId="3" r:id="rId3"/>
+    <sheet name="BookUserInHome" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>TestID</t>
   </si>
@@ -216,6 +217,18 @@
   </si>
   <si>
     <t>david@gmail.com</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>tour</t>
+  </si>
+  <si>
+    <t>confirmText</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
   </si>
 </sst>
 </file>
@@ -548,7 +561,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -859,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -911,4 +924,38 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.crm.framework.SDET37/src/test/resources/Sdet37TestData.xlsx
+++ b/com.crm.framework.SDET37/src/test/resources/Sdet37TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="6015" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="6015" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Organisations" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>TestID</t>
   </si>
@@ -229,6 +229,24 @@
   </si>
   <si>
     <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>user is created</t>
+  </si>
+  <si>
+    <t>user status</t>
+  </si>
+  <si>
+    <t>admin status</t>
+  </si>
+  <si>
+    <t>user is created and verified in admin page</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>testing</t>
   </si>
 </sst>
 </file>
@@ -870,10 +888,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -882,9 +900,11 @@
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -900,8 +920,17 @@
       <c r="E1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -916,6 +945,15 @@
       </c>
       <c r="E2" t="s">
         <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -930,7 +968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/com.crm.framework.SDET37/src/test/resources/Sdet37TestData.xlsx
+++ b/com.crm.framework.SDET37/src/test/resources/Sdet37TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="6015" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="6015" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Organisations" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t>TestID</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>testing</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>pass package is booked</t>
   </si>
 </sst>
 </file>
@@ -579,7 +585,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -890,7 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -966,31 +972,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>65</v>
       </c>
       <c r="B1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/com.crm.framework.SDET37/src/test/resources/Sdet37TestData.xlsx
+++ b/com.crm.framework.SDET37/src/test/resources/Sdet37TestData.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="6015" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15510" windowHeight="6180" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Organisations" sheetId="1" r:id="rId1"/>
     <sheet name="Contacts" sheetId="2" r:id="rId2"/>
     <sheet name="NewUser" sheetId="3" r:id="rId3"/>
+    <sheet name="enquiryform" sheetId="4" r:id="rId4"/>
+    <sheet name="updatePackage" sheetId="6" r:id="rId5"/>
+    <sheet name="enquiry" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:T18"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
   <si>
     <t>TestID</t>
   </si>
@@ -216,13 +220,73 @@
   </si>
   <si>
     <t>david@gmail.com</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Fullname</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>mangalore</t>
+  </si>
+  <si>
+    <t>ccccccc</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Package Name</t>
+  </si>
+  <si>
+    <t>Package Type</t>
+  </si>
+  <si>
+    <t>Package loc</t>
+  </si>
+  <si>
+    <t>Package Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package feature </t>
+  </si>
+  <si>
+    <t>Package Details</t>
+  </si>
+  <si>
+    <t>Taj mahal</t>
+  </si>
+  <si>
+    <t>Family package</t>
+  </si>
+  <si>
+    <t>agra</t>
+  </si>
+  <si>
+    <t>food provided</t>
+  </si>
+  <si>
+    <t>verygood</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,21 +612,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
@@ -571,7 +635,7 @@
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -611,7 +675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>17</v>
       </c>
@@ -619,7 +683,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>18</v>
       </c>
@@ -627,7 +691,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>19</v>
       </c>
@@ -635,7 +699,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>20</v>
       </c>
@@ -643,7 +707,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>21</v>
       </c>
@@ -651,7 +715,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>22</v>
       </c>
@@ -659,7 +723,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>23</v>
       </c>
@@ -667,7 +731,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>24</v>
       </c>
@@ -675,7 +739,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>25</v>
       </c>
@@ -683,107 +747,107 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="4:4">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="4:4">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="4:4">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>46</v>
       </c>
@@ -795,14 +859,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
@@ -810,7 +874,7 @@
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -825,7 +889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
@@ -833,7 +897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -856,14 +920,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
@@ -871,7 +935,7 @@
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -888,7 +952,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -911,4 +975,141 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>111111111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2">
+        <v>10000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>